--- a/documents/G05_Week3/功能测试用例_G05_v0.1.xlsx
+++ b/documents/G05_Week3/功能测试用例_G05_v0.1.xlsx
@@ -3,24 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996BBFD-C286-4193-B03A-E53CF89A5C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5144136A-2B6C-4ACE-98BC-6A401E24F6EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="24705" windowHeight="14070" tabRatio="521" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="705" windowWidth="24705" windowHeight="14070" tabRatio="521" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="5" r:id="rId1"/>
     <sheet name="测试内容" sheetId="2" r:id="rId2"/>
-    <sheet name="2.职能学习模块" sheetId="1" r:id="rId3"/>
-    <sheet name="3.病例管理模块" sheetId="7" r:id="rId4"/>
-    <sheet name="4.测试管理模块" sheetId="8" r:id="rId5"/>
-    <sheet name="6.数据管理模块" sheetId="6" r:id="rId6"/>
+    <sheet name="1.医院导览模块" sheetId="10" r:id="rId3"/>
+    <sheet name="2.职能学习模块" sheetId="1" r:id="rId4"/>
+    <sheet name="3.病例管理模块" sheetId="7" r:id="rId5"/>
+    <sheet name="4.测试管理模块" sheetId="8" r:id="rId6"/>
+    <sheet name="5.系统管理模块" sheetId="9" r:id="rId7"/>
+    <sheet name="6.数据管理模块" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="199">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,12 +654,239 @@
     <t>PH_M04_TC001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>数据库保存测试、试卷信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增测试题目，填写题目、答案、类别等信息
+2.修改已有测试题目并保存
+3.删除一条测试考题信息
+4.新增一张试卷，填入试卷包含的考题题目、试卷时间
+5.修改已有试卷信息
+6.删除一条已有的试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户认证为系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M05_TC005</t>
+  </si>
+  <si>
+    <t>数据库保存修改的病例信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增病例，填写病例名称、接诊信息、病例检查、诊断结果、治疗方案
+2.修改已有病例信息并保存
+3.删除一条病例信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理病例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M05_TC004</t>
+  </si>
+  <si>
+    <t>数据库保存职能学习信息，用户界面职能选择条目变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择新增一个角色扮演，填写角色名称
+2.修改已存在的角色名称信息
+3.删除一个角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理职能学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M05_TC003</t>
+  </si>
+  <si>
+    <t>数据库保存基本结构与功能信息，并相应展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择新增药品、收费、档案、化验项目、疫苗或住院条目
+2.修改已经存在的药品、收费、档案、化验项目、疫苗或住院条目信息
+3.删除一条药品、收费、档案、化验项目、疫苗或住院条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理基本结构与功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M05_TC002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库保存用户信息并展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择新增用户，填写包含用户名、密码、身份以及权限信息
+2.修改一条用户记录，点击修改，从已存在的记录上进行修改
+3.删除一条用户记录，点击删除，并确认删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M05_TC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.角色正确切换
+2.现实的内容随着角色切换而改变显示</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点解角色按钮
+2.从弹出菜单中选择角色</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户已登录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换角色</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M01_TC004</t>
+  </si>
+  <si>
+    <t>1.正确进入岗位
+2.正确显示用户目前角色在该岗位应该显示的内容</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.处于一个能进入某个岗位的场景 
+2.点击某个岗位进入岗位</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入岗位</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M01_TC003</t>
+  </si>
+  <si>
+    <t>1.视角正确转动
+2.全景图片显示正常</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入某个场景
+2.旋转视角</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景浏览</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M01_TC002</t>
+  </si>
+  <si>
+    <t>场景正确切换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入医院导览首页
+2.点击各个导览箭头</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_M01_TC001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测结果</t>
+  </si>
+  <si>
+    <t>是否自动化</t>
+  </si>
+  <si>
+    <t>预期输出</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
+  </si>
+  <si>
+    <t>预置条件</t>
+  </si>
+  <si>
+    <t>测试描述</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>测试用例编号</t>
+  </si>
+  <si>
+    <t>OS：</t>
+  </si>
+  <si>
+    <t>硬盘：</t>
+  </si>
+  <si>
+    <t>内存：</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>CPU：</t>
+  </si>
+  <si>
+    <t>应用服务器</t>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -733,6 +962,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1049,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1176,6 +1419,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1287,8 +1536,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1621,12 +1909,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" ht="16.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
@@ -1720,13 +2008,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1816,6 +2104,1665 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BA9627-9878-48F8-8B7C-18FD02EA7AF6}">
+  <dimension ref="A1:H155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="42" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="42" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="42" customWidth="1"/>
+    <col min="6" max="7" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="42" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="94"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="91"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="85"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="85"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="85"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="85"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="85"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="85"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="85"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="85"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="85"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="85"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="85"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="85"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="85"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="85"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="85"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="85"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="85"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="85"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="85"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="85"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="85"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="85"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="85"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="85"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="85"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="85"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="85"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="85"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="85"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="85"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="85"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="85"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="85"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="85"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="85"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="85"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="85"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="85"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="85"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="85"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="85"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="85"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="85"/>
+      <c r="H114" s="85"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="85"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="85"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="85"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="85"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="85"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="85"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="85"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="85"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="85"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="85"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="85"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="85"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="85"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="85"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="85"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="85"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="85"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="85"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="85"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="85"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="85"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="85"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="85"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="85"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="85"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="85"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="85"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
+      <c r="F133" s="85"/>
+      <c r="G133" s="85"/>
+      <c r="H133" s="85"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="85"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="85"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
+      <c r="F134" s="85"/>
+      <c r="G134" s="85"/>
+      <c r="H134" s="85"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="85"/>
+      <c r="B135" s="85"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="85"/>
+      <c r="E135" s="85"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="85"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="85"/>
+      <c r="B136" s="85"/>
+      <c r="C136" s="85"/>
+      <c r="D136" s="85"/>
+      <c r="E136" s="85"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="85"/>
+      <c r="H136" s="85"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="85"/>
+      <c r="B137" s="85"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="85"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="85"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="85"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="85"/>
+      <c r="H138" s="85"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="85"/>
+      <c r="B139" s="85"/>
+      <c r="C139" s="85"/>
+      <c r="D139" s="85"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="85"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="85"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="85"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="85"/>
+      <c r="H140" s="85"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="85"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="85"/>
+      <c r="D141" s="85"/>
+      <c r="E141" s="85"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="85"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="85"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="85"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="85"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="85"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="85"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="85"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="85"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="85"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="85"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="85"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="85"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="85"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="85"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="85"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="85"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="85"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="85"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="85"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="85"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A152" s="85"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="85"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="85"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A155" s="85"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H156"/>
@@ -1838,43 +3785,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="58" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1888,40 +3835,40 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="60"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
@@ -3470,7 +5417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA64E408-343C-4E0C-8832-4ED3C53612A9}">
   <dimension ref="A1:H156"/>
   <sheetViews>
@@ -3492,43 +5439,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="74" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
@@ -3542,40 +5489,40 @@
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="75"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:8" ht="140.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
@@ -3632,16 +5579,16 @@
       <c r="B10" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="46" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -3656,16 +5603,16 @@
       <c r="B11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="46" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="38" t="s">
@@ -3680,16 +5627,16 @@
       <c r="B12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="46" t="s">
         <v>73</v>
       </c>
       <c r="G12" s="38" t="s">
@@ -5138,7 +7085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A02B98C-A5A2-4EE5-887B-04AB9AF0EBEF}">
   <dimension ref="A1:H156"/>
   <sheetViews>
@@ -5160,43 +7107,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="82" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="83"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
@@ -5210,40 +7157,40 @@
       <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="80" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="79"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" s="43" t="s">
@@ -6834,11 +8781,1682 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B36C65A-1B9C-4438-B207-A3C32B5946B4}">
+  <dimension ref="A1:H155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="42" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="42" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="42" customWidth="1"/>
+    <col min="6" max="7" width="23.25" style="42" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="42" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="81"/>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="43"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="43"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="43"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="43"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="43"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="43"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="43"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="43"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="43"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="43"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="43"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="43"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="43"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="43"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A152" s="43"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="43"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5AEAA-77C1-4100-BA08-B38963765827}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -6855,87 +10473,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="74" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="75"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="75"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
